--- a/excel2json-master/Dialog01.xlsx
+++ b/excel2json-master/Dialog01.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Graduation-Project\excel2json-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AE251FF-2F81-42F0-8080-B130F9F72B90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1089797E-C065-4825-8179-3912E11EEE25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,40 +31,119 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
-  <si>
-    <t>FireBat</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="29">
+  <si>
+    <t>선택지 0으로부터 나온 대사 01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#talkDataSet[{}]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>dialogue</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>emotion</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Evilmage</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>There's appealing information for you guys.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Glad</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Swordman</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>What the hell is it?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Upset</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SwordMan, Just ignore him.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Normal</t>
-  </si>
-  <si>
-    <t>That's too bad.</t>
-  </si>
-  <si>
-    <t>Come on...</t>
-  </si>
-  <si>
-    <t>선택지 0으로부터 나온 대사 01</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>#talkDataSet[{}]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>name</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>dialogue</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>emotion</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Archer</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yes, his words are meaningless.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Haha.. Okay.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>You don't have to listen to me.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>But, I think the king will praise you.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>for doing what I told you to.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#selectionData{}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>$key</t>
+  </si>
+  <si>
+    <t>$value</t>
+  </si>
+  <si>
+    <t>yes</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Okay. Tell us about it.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>no</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>…Tell us.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Okay Okay.. Anyway,</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>대사 01에서 이어지는 선택지</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wizard</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -462,58 +541,156 @@
   <dimension ref="A1:E34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="24.3984375" customWidth="1"/>
     <col min="2" max="2" width="11.09765625" customWidth="1"/>
-    <col min="3" max="3" width="23.19921875" customWidth="1"/>
+    <col min="3" max="3" width="56.296875" customWidth="1"/>
     <col min="4" max="4" width="63.3984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B1" s="6" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C1" s="6"/>
       <c r="E1" s="1"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B3" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B4" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>2</v>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="B6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="B10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="B11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="B13" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="6"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="B15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.4">
@@ -557,9 +734,10 @@
       <c r="C34" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="B30:C30"/>
     <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B13:C13"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
